--- a/biology/Zoologie/Bitis_atropos/Bitis_atropos.xlsx
+++ b/biology/Zoologie/Bitis_atropos/Bitis_atropos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis atropos est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis atropos est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Afrique du Sud ;
 au Swaziland ;
 au Lesotho ;
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes atteignent 30 à 40 cm, au maximum 50 cm pour les femelles (et 60 cm en captivité). Ces serpents apprécient les habitats avec de fortes précipitations, plutôt frais, et peuvent se rencontrer jusqu'à 3 000 m d'altitude. On les rencontre en général plutôt dans des zones élevées voire montagneuses.
 </t>
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Bitis atropos atropos (Linnaeus, 1758)
 Bitis atropos unicolor FitzSimons, 1959</t>
         </is>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
 FitzSimons, 1959 : Some new reptiles from southern Africa and southern Angola. Annals of the Transvaal Museum, vol. 23, no 4, p. 405-409 (texte intégral).</t>
